--- a/tree.xlsx
+++ b/tree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>hello</t>
   </si>
@@ -362,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -385,6 +385,11 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
